--- a/ig/maj/kereval/0302/StructureDefinition-ror-organization.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T10:54:17+00:00</t>
+    <t>2023-02-13T13:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-organization.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T13:24:55+00:00</t>
+    <t>2023-02-14T16:40:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5502,7 +5502,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>70</v>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-organization.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T16:40:13+00:00</t>
+    <t>2023-02-15T16:52:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-organization.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T16:52:51+00:00</t>
+    <t>2023-02-16T17:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -498,13 +498,13 @@
 </t>
   </si>
   <si>
-    <t>Organization.extension:ror-healthcareservice-territorial</t>
-  </si>
-  <si>
-    <t>ror-healthcareservice-territorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-healthcareservice-territorial}
+    <t>Organization.extension:ror-organization-territorial</t>
+  </si>
+  <si>
+    <t>ror-organization-territorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-organization-territorial}
 </t>
   </si>
   <si>

--- a/ig/maj/kereval/0302/StructureDefinition-ror-organization.xlsx
+++ b/ig/maj/kereval/0302/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T17:40:35+00:00</t>
+    <t>2023-02-17T08:35:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
